--- a/test-files/gene-name-modifications/mismatched-case-related-output.xlsx
+++ b/test-files/gene-name-modifications/mismatched-case-related-output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25480" windowHeight="13940" tabRatio="773" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="25480" windowHeight="13940" tabRatio="773" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -212,13 +226,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2318,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2468,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-8.8064089769780043E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3822,6 +3840,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5872,8 +5891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6022,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
